--- a/mbs-perturbation/mega/randomForest/smote/mega-randomForest-smote-results.xlsx
+++ b/mbs-perturbation/mega/randomForest/smote/mega-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8169642857142857</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.8757396449704142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8926829268292684</v>
+        <v>0.7531806615776082</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8880795467684125</v>
+        <v>0.8049963236581352</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.6777251184834123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7021943573667713</v>
+        <v>0.7526315789473685</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8324083709099318</v>
+        <v>0.8543468365953574</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9212121212121213</v>
+        <v>0.9096774193548387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.834319526627219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8660968660968662</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9386923343739161</v>
+        <v>0.9597002906060712</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6926406926406926</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8602150537634409</v>
+        <v>0.8224852071005917</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7673860911270983</v>
+        <v>0.9025974025974026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8944202266782911</v>
+        <v>0.9435944119603655</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8324324324324325</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9032258064516131</v>
+        <v>0.8637873754152825</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9594303981400757</v>
+        <v>0.9919820734568117</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8520203699808964</v>
+        <v>0.8465930616802044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8191746585294973</v>
+        <v>0.829585798816568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8263172095743234</v>
+        <v>0.8285134777816066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9026061753741255</v>
+        <v>0.9109239872553481</v>
       </c>
     </row>
   </sheetData>
